--- a/Nowcasts/2025Q4/tables/nowcasts_2026Q1_Nr8_Np3_Nj0.xlsx
+++ b/Nowcasts/2025Q4/tables/nowcasts_2026Q1_Nr8_Np3_Nj0.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="59">
   <si>
     <t>Row</t>
   </si>
@@ -109,6 +109,57 @@
   </si>
   <si>
     <t>2025-11-15</t>
+  </si>
+  <si>
+    <t>Prognose</t>
+  </si>
+  <si>
+    <t>surveys</t>
+  </si>
+  <si>
+    <t>production</t>
+  </si>
+  <si>
+    <t>orders</t>
+  </si>
+  <si>
+    <t>turnover</t>
+  </si>
+  <si>
+    <t>financial</t>
+  </si>
+  <si>
+    <t>labor market</t>
+  </si>
+  <si>
+    <t>prices</t>
+  </si>
+  <si>
+    <t>national accounts</t>
+  </si>
+  <si>
+    <t>Revision</t>
+  </si>
+  <si>
+    <t>Row</t>
+  </si>
+  <si>
+    <t>2025-09-30</t>
+  </si>
+  <si>
+    <t>2025-10-15</t>
+  </si>
+  <si>
+    <t>2025-10-30</t>
+  </si>
+  <si>
+    <t>2025-11-15</t>
+  </si>
+  <si>
+    <t>2025-11-30</t>
+  </si>
+  <si>
+    <t>2025-12-15</t>
   </si>
   <si>
     <t>Prognose</t>
@@ -190,57 +241,57 @@
     <col min="1" max="1" width="10.37890625" customWidth="true"/>
     <col min="2" max="2" width="12.64453125" customWidth="true"/>
     <col min="3" max="3" width="14.24609375" customWidth="true"/>
-    <col min="4" max="4" width="15.24609375" customWidth="true"/>
+    <col min="4" max="4" width="15.64453125" customWidth="true"/>
     <col min="5" max="5" width="16.24609375" customWidth="true"/>
-    <col min="6" max="6" width="16.24609375" customWidth="true"/>
-    <col min="7" max="7" width="15.64453125" customWidth="true"/>
+    <col min="6" max="6" width="15.77734375" customWidth="true"/>
+    <col min="7" max="7" width="15.24609375" customWidth="true"/>
     <col min="8" max="8" width="15.77734375" customWidth="true"/>
     <col min="9" max="9" width="16.24609375" customWidth="true"/>
-    <col min="10" max="10" width="15.64453125" customWidth="true"/>
+    <col min="10" max="10" width="15.046875" customWidth="true"/>
     <col min="11" max="11" width="16.24609375" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>21</v>
+        <v>42</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>32</v>
+        <v>49</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>33</v>
+        <v>50</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>34</v>
+        <v>51</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>35</v>
+        <v>52</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>36</v>
+        <v>53</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>37</v>
+        <v>54</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>38</v>
+        <v>55</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>39</v>
+        <v>56</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>40</v>
+        <v>57</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>41</v>
+        <v>58</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>22</v>
+        <v>43</v>
       </c>
       <c r="B2" s="0">
-        <v>0.25227492779432881</v>
+        <v>0.2113612845817191</v>
       </c>
       <c r="C2" s="0">
         <v>0</v>
@@ -272,177 +323,177 @@
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>23</v>
+        <v>44</v>
       </c>
       <c r="B3" s="0">
-        <v>0.26111713424983574</v>
+        <v>0.22846811570041856</v>
       </c>
       <c r="C3" s="0">
         <v>0</v>
       </c>
       <c r="D3" s="0">
-        <v>0.0020017680554260523</v>
+        <v>0.0022632260226792948</v>
       </c>
       <c r="E3" s="0">
-        <v>-0.00050884565668975288</v>
+        <v>0.0013952951316078875</v>
       </c>
       <c r="F3" s="0">
-        <v>0.0032168073267547673</v>
+        <v>0.0019083025805341702</v>
       </c>
       <c r="G3" s="0">
-        <v>0.00037954131122642446</v>
+        <v>0.0010010192655974803</v>
       </c>
       <c r="H3" s="0">
-        <v>1.834330685167645e-05</v>
+        <v>-3.6276972651690353e-05</v>
       </c>
       <c r="I3" s="0">
-        <v>-0.00018065755061002584</v>
+        <v>-0.00049568743761461097</v>
       </c>
       <c r="J3" s="0">
         <v>0</v>
       </c>
       <c r="K3" s="0">
-        <v>-0.00018320192096588084</v>
+        <v>0.005085330807441113</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>24</v>
+        <v>45</v>
       </c>
       <c r="B4" s="0">
-        <v>0.33760019618796105</v>
+        <v>0.34127803299941145</v>
       </c>
       <c r="C4" s="0">
-        <v>0.026459656015418727</v>
+        <v>0.055917143554954647</v>
       </c>
       <c r="D4" s="0">
         <v>0</v>
       </c>
       <c r="E4" s="0">
-        <v>0.00019212810225276454</v>
+        <v>-0.00081438867541951674</v>
       </c>
       <c r="F4" s="0">
-        <v>-0.00027191170518491161</v>
+        <v>-9.3716451474950261e-06</v>
       </c>
       <c r="G4" s="0">
         <v>0</v>
       </c>
       <c r="H4" s="0">
-        <v>3.5978219311840856e-07</v>
+        <v>0.00058261755479062404</v>
       </c>
       <c r="I4" s="0">
-        <v>0.00017501645333597971</v>
+        <v>-0.0023759055295641505</v>
       </c>
       <c r="J4" s="0">
-        <v>0.00064330773745661343</v>
+        <v>0.0029976442716891814</v>
       </c>
       <c r="K4" s="0">
-        <v>-3.3241028841890508e-05</v>
+        <v>-0.00011946344348232052</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>25</v>
+        <v>46</v>
       </c>
       <c r="B5" s="0">
-        <v>0.40448749904552322</v>
+        <v>0.35974335314232758</v>
       </c>
       <c r="C5" s="0">
         <v>0</v>
       </c>
       <c r="D5" s="0">
-        <v>0.0064412774162478214</v>
+        <v>0.00014699654210745616</v>
       </c>
       <c r="E5" s="0">
-        <v>0.0010959749213355185</v>
+        <v>-0.00036737147975709919</v>
       </c>
       <c r="F5" s="0">
-        <v>0.003362967381912484</v>
+        <v>0.010878750558187421</v>
       </c>
       <c r="G5" s="0">
-        <v>0.00039463767489964792</v>
+        <v>-0.0024531109789531075</v>
       </c>
       <c r="H5" s="0">
-        <v>4.5917516316985586e-05</v>
+        <v>0.00034354718127220215</v>
       </c>
       <c r="I5" s="0">
-        <v>0.00036078304316602912</v>
+        <v>-0.00062128049811472599</v>
       </c>
       <c r="J5" s="0">
         <v>0</v>
       </c>
       <c r="K5" s="0">
-        <v>0.005029568579150101</v>
+        <v>-0.015244513179135832</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>26</v>
+        <v>47</v>
       </c>
       <c r="B6" s="0">
-        <v>0.36750965025028826</v>
+        <v>0.2667744730508082</v>
       </c>
       <c r="C6" s="0">
-        <v>-0.017317126212398164</v>
+        <v>-0.031379007772075813</v>
       </c>
       <c r="D6" s="0">
         <v>0</v>
       </c>
       <c r="E6" s="0">
-        <v>6.0582936471333304e-05</v>
+        <v>-0.0023577010802306544</v>
       </c>
       <c r="F6" s="0">
-        <v>7.816229129940364e-05</v>
+        <v>0.00065018987221273836</v>
       </c>
       <c r="G6" s="0">
         <v>0</v>
       </c>
       <c r="H6" s="0">
-        <v>-9.170941593901458e-05</v>
+        <v>0.0014901741994329031</v>
       </c>
       <c r="I6" s="0">
-        <v>-0.00075374164584339942</v>
+        <v>-0.011476021907462282</v>
       </c>
       <c r="J6" s="0">
         <v>0</v>
       </c>
       <c r="K6" s="0">
-        <v>4.8866959058146975e-05</v>
+        <v>-0.00020126198787728811</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>27</v>
+        <v>48</v>
       </c>
       <c r="B7" s="0">
-        <v>0.2717744126915414</v>
+        <v>0.22103534590635748</v>
       </c>
       <c r="C7" s="0">
         <v>0</v>
       </c>
       <c r="D7" s="0">
-        <v>-0.0040332909048887457</v>
+        <v>-0.033020119258093499</v>
       </c>
       <c r="E7" s="0">
-        <v>-0.0030739886673161491</v>
+        <v>-0.00172549812021947</v>
       </c>
       <c r="F7" s="0">
-        <v>-0.0056482934175325966</v>
+        <v>0.0087738866174711487</v>
       </c>
       <c r="G7" s="0">
-        <v>0.00011750718410207104</v>
+        <v>0.0024233210980385816</v>
       </c>
       <c r="H7" s="0">
-        <v>-2.1802469193674688e-05</v>
+        <v>0</v>
       </c>
       <c r="I7" s="0">
-        <v>-0.00011567828656203257</v>
+        <v>0</v>
       </c>
       <c r="J7" s="0">
         <v>0</v>
       </c>
       <c r="K7" s="0">
-        <v>0.0049334760001327194</v>
+        <v>0.0022646364538382868</v>
       </c>
     </row>
     <row r="8">
